--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE4AA2-CA02-477E-B231-7881349F233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="2670" windowWidth="25665" windowHeight="13515" tabRatio="698"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,10 +22,11 @@
     <sheet name="GRA-eleccapconstsubsidy" sheetId="12" r:id="rId7"/>
     <sheet name="GRA-distsolarsubsidy" sheetId="13" r:id="rId8"/>
     <sheet name="GRA-fuelsubsidy" sheetId="14" r:id="rId9"/>
-    <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId10"/>
-    <sheet name="GRA-remainder" sheetId="16" r:id="rId11"/>
+    <sheet name="GRA-CCSsubsidy" sheetId="17" r:id="rId10"/>
+    <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId11"/>
+    <sheet name="GRA-remainder" sheetId="16" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +37,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,26 +47,17 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={4F81BCB5-E56D-426A-91DB-BCF0877CB817}</author>
   </authors>
   <commentList>
-    <comment ref="C15" authorId="0" shapeId="0">
+    <comment ref="C15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     It is recommended to leave this cell set to zero and to set a non-zero value in at least one other cell in this row.</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -69,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
   <si>
     <t>GRA Government Revenue Accounting</t>
   </si>
@@ -272,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +376,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -713,22 +709,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.86328125" customWidth="1"/>
+    <col min="2" max="2" width="80.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,72 +732,72 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -809,7 +805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -817,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -825,7 +821,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>4</v>
       </c>
@@ -833,7 +829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -841,114 +837,114 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="13"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -960,7 +956,77 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA2E839-CD46-441A-9367-FEC65ECF3E07}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B14:F14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -968,12 +1034,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -981,7 +1047,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -990,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -998,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1006,7 +1072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1014,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1027,8 +1093,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1036,12 +1102,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1049,7 +1115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1058,7 +1124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1066,7 +1132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1074,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1082,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1096,7 +1162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -1106,33 +1172,33 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1142,7 +1208,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1162,7 +1228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1202,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1222,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1242,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1262,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1282,7 +1348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1302,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1322,7 +1388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1342,7 +1408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>52</v>
       </c>
@@ -1352,12 +1418,12 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
@@ -1377,7 +1443,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1402,7 +1468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1427,7 +1493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1452,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1477,7 +1543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1502,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1527,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1552,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1610,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1620,12 +1686,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1633,7 +1699,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1642,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1650,7 +1716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1658,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1666,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1680,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1690,12 +1756,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1703,7 +1769,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1712,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1720,7 +1786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1728,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1736,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1750,7 +1816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1758,12 +1824,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1771,7 +1837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1780,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1788,7 +1854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1796,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1818,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1826,12 +1892,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1839,7 +1905,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1848,7 +1914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1856,7 +1922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1864,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1872,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1886,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1894,12 +1960,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1907,7 +1973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1916,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1924,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -1932,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -1940,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -1954,7 +2020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -1962,12 +2028,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -1975,7 +2041,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1984,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1992,7 +2058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2000,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2008,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -2022,20 +2088,22 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="1"/>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
@@ -2043,7 +2111,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -2052,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2060,7 +2128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2068,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>64</v>
       </c>

--- a/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
+++ b/InputData/ctrl-settings/GRA/Government Revenue Accounting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\ctrl-settings\GRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CE4AA2-CA02-477E-B231-7881349F233B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D819826-0E41-444E-85CC-5113AD7B4B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,13 +18,14 @@
     <sheet name="GRA-carbontax" sheetId="8" r:id="rId3"/>
     <sheet name="GRA-fueltax" sheetId="9" r:id="rId4"/>
     <sheet name="GRA-evsubsidy" sheetId="10" r:id="rId5"/>
-    <sheet name="GRA-elecgensubsidy" sheetId="11" r:id="rId6"/>
-    <sheet name="GRA-eleccapconstsubsidy" sheetId="12" r:id="rId7"/>
-    <sheet name="GRA-distsolarsubsidy" sheetId="13" r:id="rId8"/>
-    <sheet name="GRA-fuelsubsidy" sheetId="14" r:id="rId9"/>
-    <sheet name="GRA-CCSsubsidy" sheetId="17" r:id="rId10"/>
-    <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId11"/>
-    <sheet name="GRA-remainder" sheetId="16" r:id="rId12"/>
+    <sheet name="GRA-vehbatsubsidy" sheetId="18" r:id="rId6"/>
+    <sheet name="GRA-elecgensubsidy" sheetId="11" r:id="rId7"/>
+    <sheet name="GRA-eleccapconstsubsidy" sheetId="12" r:id="rId8"/>
+    <sheet name="GRA-distsolarsubsidy" sheetId="13" r:id="rId9"/>
+    <sheet name="GRA-fuelsubsidy" sheetId="14" r:id="rId10"/>
+    <sheet name="GRA-CCSsubsidy" sheetId="17" r:id="rId11"/>
+    <sheet name="GRA-ntnldebtinterest" sheetId="15" r:id="rId12"/>
+    <sheet name="GRA-remainder" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="66">
   <si>
     <t>GRA Government Revenue Accounting</t>
   </si>
@@ -956,6 +957,76 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B14:F14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AA2E839-CD46-441A-9367-FEC65ECF3E07}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -1025,7 +1096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -1093,7 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -1884,6 +1955,76 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B908123-95CE-4078-92C4-B4CA1F0204BE}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2">
+        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B10:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -1951,7 +2092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -2019,7 +2160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -2085,74 +2226,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2">
-        <f t="array" ref="B2:B6">TRANSPOSE('Set Values Here'!B14:F14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>